--- a/Spatial/PDFs/figure1_zMIs_AD_RANOVA_multcompare.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_RANOVA_multcompare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDEEC684-3961-4A5C-925C-D4BAAEFDF7D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FB85A82-1591-4D70-B8E0-C9DFB4C50FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{976ABC65-0609-43D3-B597-33BF039217B1}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{F1BF7051-C70A-4206-9918-AC8F8B27A1F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,21 +409,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB979EC5-45A4-41FB-AB27-35A4F2D99780}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC739C20-E039-4016-90B4-FF8FA03F487A}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,7 +476,7 @@
         <v>1.2488680450748326</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -501,7 +502,7 @@
         <v>0.96107380037395895</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -527,7 +528,7 @@
         <v>0.45783389016845155</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -553,7 +554,7 @@
         <v>0.87583588589652472</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -579,7 +580,7 @@
         <v>1.7536900275486296</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -605,7 +606,7 @@
         <v>1.0238137641391891</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -631,7 +632,7 @@
         <v>2.1616090160528532</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -663,24 +664,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A8BE3C-B051-440F-A65A-D82045408018}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B4823A-EEA3-44E6-8AEA-11D2D80D4B1A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F6B8B6-4BD7-4759-BC4E-65A733F9E918}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B5795F-68D7-4A96-AFD0-F0285511BED2}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Spatial/PDFs/figure1_zMIs_AD_RANOVA_multcompare.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_RANOVA_multcompare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FB85A82-1591-4D70-B8E0-C9DFB4C50FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A18CA85-B4F3-4BD9-B8EE-40F80EB6A112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{F1BF7051-C70A-4206-9918-AC8F8B27A1F2}"/>
   </bookViews>

--- a/Spatial/PDFs/figure1_zMIs_AD_RANOVA_multcompare.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_RANOVA_multcompare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\brendan.mcallister\Documents\GitHub\Toolbox_2P\Spatial\PDFs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F08F90A7-EE8B-45BA-80BB-4E7F704EB8A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3351E944-9DC4-48F2-BD35-62282320BB46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{633674BE-1B4D-421B-90E5-1C8199B3B901}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{633674BE-1B4D-421B-90E5-1C8199B3B901}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,19 +461,19 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0.65076853201756502</v>
+        <v>0.75025761182420292</v>
       </c>
       <c r="E2">
-        <v>1.2291649838219745</v>
+        <v>1.1013690295029153</v>
       </c>
       <c r="F2">
-        <v>0.61087306539858899</v>
+        <v>0.514972747051607</v>
       </c>
       <c r="G2">
-        <v>-2.1836910035240704</v>
+        <v>-1.7895039245953193</v>
       </c>
       <c r="H2">
-        <v>3.4852280675592002</v>
+        <v>3.2900191482437249</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -487,19 +487,19 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.65076853201756502</v>
+        <v>-0.75025761182420292</v>
       </c>
       <c r="E3">
-        <v>1.2291649838219745</v>
+        <v>1.1013690295029153</v>
       </c>
       <c r="F3">
-        <v>0.61087306539858899</v>
+        <v>0.514972747051607</v>
       </c>
       <c r="G3">
-        <v>-3.4852280675592002</v>
+        <v>-3.2900191482437249</v>
       </c>
       <c r="H3">
-        <v>2.1836910035240704</v>
+        <v>1.7895039245953193</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -513,19 +513,19 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1.3780031167641695</v>
+        <v>1.1927908870600401</v>
       </c>
       <c r="E4">
-        <v>1.3596214538276654</v>
+        <v>1.1795373357167482</v>
       </c>
       <c r="F4">
-        <v>0.34048069816783932</v>
+        <v>0.34150731702127357</v>
       </c>
       <c r="G4">
-        <v>-1.7572895780747273</v>
+        <v>-1.5272270867304862</v>
       </c>
       <c r="H4">
-        <v>4.5132958116030668</v>
+        <v>3.9128088608505665</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -539,19 +539,19 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>-1.3780031167641695</v>
+        <v>-1.1927908870600401</v>
       </c>
       <c r="E5">
-        <v>1.3596214538276654</v>
+        <v>1.1795373357167482</v>
       </c>
       <c r="F5">
-        <v>0.34048069816783932</v>
+        <v>0.34150731702127357</v>
       </c>
       <c r="G5">
-        <v>-4.5132958116030668</v>
+        <v>-3.9128088608505665</v>
       </c>
       <c r="H5">
-        <v>1.7572895780747273</v>
+        <v>1.5272270867304862</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,19 +565,19 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0.95437988522827322</v>
+        <v>0.91240428105497828</v>
       </c>
       <c r="E6">
-        <v>1.8616474369445659</v>
+        <v>2.1677324304833641</v>
       </c>
       <c r="F6">
-        <v>0.62204499959301662</v>
+        <v>0.68490582327716087</v>
       </c>
       <c r="G6">
-        <v>-3.3385868026581331</v>
+        <v>-4.0863956676558377</v>
       </c>
       <c r="H6">
-        <v>5.2473465731146796</v>
+        <v>5.9112042297657936</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -591,19 +591,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>-0.95437988522827322</v>
+        <v>-0.91240428105497828</v>
       </c>
       <c r="E7">
-        <v>1.8616474369445659</v>
+        <v>2.1677324304833641</v>
       </c>
       <c r="F7">
-        <v>0.62204499959301662</v>
+        <v>0.68490582327716087</v>
       </c>
       <c r="G7">
-        <v>-5.2473465731146796</v>
+        <v>-5.9112042297657936</v>
       </c>
       <c r="H7">
-        <v>3.3385868026581331</v>
+        <v>4.0863956676558377</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -617,19 +617,19 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>1.4738981804405245</v>
+        <v>1.7669800938134539</v>
       </c>
       <c r="E8">
-        <v>1.8843573218265921</v>
+        <v>1.9660700831860538</v>
       </c>
       <c r="F8">
-        <v>0.45663582830999083</v>
+        <v>0.39503740637053131</v>
       </c>
       <c r="G8">
-        <v>-2.8714375958938452</v>
+        <v>-2.7667856481147854</v>
       </c>
       <c r="H8">
-        <v>5.8192339567748945</v>
+        <v>6.3007458357416937</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,19 +643,19 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>-1.4738981804405245</v>
+        <v>-1.7669800938134539</v>
       </c>
       <c r="E9">
-        <v>1.8843573218265921</v>
+        <v>1.9660700831860538</v>
       </c>
       <c r="F9">
-        <v>0.45663582830999083</v>
+        <v>0.39503740637053131</v>
       </c>
       <c r="G9">
-        <v>-5.8192339567748945</v>
+        <v>-6.3007458357416937</v>
       </c>
       <c r="H9">
-        <v>2.8714375958938452</v>
+        <v>2.7667856481147854</v>
       </c>
     </row>
   </sheetData>
